--- a/movies.xlsx
+++ b/movies.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>County</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Facility</t>
   </si>
@@ -40,31 +37,40 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Uasin Gishu</t>
-  </si>
-  <si>
-    <t>Trans Nzoia</t>
-  </si>
-  <si>
-    <t>MTRH</t>
-  </si>
-  <si>
-    <t>KTRH</t>
-  </si>
-  <si>
     <t>Tom</t>
   </si>
   <si>
     <t>Jim</t>
   </si>
   <si>
-    <t>1.A</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>Bad</t>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Uzima</t>
+  </si>
+  <si>
+    <t>Dumisha</t>
+  </si>
+  <si>
+    <t>Busia MCH</t>
+  </si>
+  <si>
+    <t>Ziwa</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Urgent Remediation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           1.A</t>
   </si>
 </sst>
 </file>
@@ -442,7 +448,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -451,72 +457,73 @@
     <col min="2" max="2" width="18.19921875" customWidth="1"/>
     <col min="3" max="3" width="18.8984375" customWidth="1"/>
     <col min="4" max="4" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1">
         <v>40827</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>45017</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -524,11 +531,11 @@
       <c r="F3">
         <v>4.2</v>
       </c>
-      <c r="G3">
-        <v>1</v>
+      <c r="G3" t="s">
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
